--- a/casas_limpo.xlsx
+++ b/casas_limpo.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Alameda mamoré</t>
+          <t>Alameda Mamoré</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rua marília</t>
+          <t>Rua Marília</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Avenida valentim magalhães</t>
+          <t>Avenida Valentim Magalhães</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rua general osório</t>
+          <t>Rua General Osório</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Rua Não Encontrada</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -633,7 +633,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Avenida ernesto guevara la serna</t>
+          <t>Avenida Ernesto Guevara La Serna</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -661,7 +661,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rua álvaro lins</t>
+          <t>Rua Álvaro Lins</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -689,7 +689,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Avenida presidente kennedy</t>
+          <t>Avenida Presidente Kennedy</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rua bela vista</t>
+          <t>Rua Bela Vista</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rua dos cravos</t>
+          <t>Rua Dos Cravos</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -773,7 +773,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Avenida braz olaia acosta</t>
+          <t>Avenida Braz Olaia Acosta</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rua padre manoel de paiva</t>
+          <t>Rua Padre Manoel De Paiva</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -829,7 +829,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Avenida doutor antônio alves passig</t>
+          <t>Avenida Doutor Antônio Alves Passig</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rua dona brígida</t>
+          <t>Rua Dona Brígida</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Avenida reserva do japy</t>
+          <t>Avenida Reserva Do Japy</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rua suely aragão rocha</t>
+          <t>Rua Suely Aragão Rocha</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rua doutor rubens awada</t>
+          <t>Rua Doutor Rubens Awada</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rua são joão</t>
+          <t>Rua São João</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -997,7 +997,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rua josé augusto penteado</t>
+          <t>Rua José Augusto Penteado</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rua antônio carlos pereira</t>
+          <t>Rua Antônio Carlos Pereira</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rua hercília</t>
+          <t>Rua Hercília</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Avenida jurema</t>
+          <t>Avenida Jurema</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rua dallas</t>
+          <t>Rua Dallas</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rua gabriele d'annunzio</t>
+          <t>Rua Gabriele D'Annunzio</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Avenida jurema</t>
+          <t>Avenida Jurema</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rua estrela velha</t>
+          <t>Rua Estrela Velha</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Alameda josé de oliveira guimarães</t>
+          <t>Alameda José De Oliveira Guimarães</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Estrada velha indaiatuba - campinas</t>
+          <t>Estrada Velha Indaiatuba - Campinas</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Avenida aspirante mega</t>
+          <t>Avenida Aspirante Mega</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Quadra c 1</t>
+          <t>Quadra C 1</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Rua Não Encontrada</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rua barretos</t>
+          <t>Rua Barretos</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rua olímpia camargo wielganczuk</t>
+          <t>Rua Olímpia Camargo Wielganczuk</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Avenida salgado filho</t>
+          <t>Avenida Salgado Filho</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rua nápoles</t>
+          <t>Rua Nápoles</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rua virgulino de oliveira</t>
+          <t>Rua Virgulino De Oliveira</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rua alvorada</t>
+          <t>Rua Alvorada</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rua cristóvão cardoso de barros</t>
+          <t>Rua Cristóvão Cardoso De Barros</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rua lessa paranhos</t>
+          <t>Rua Lessa Paranhos</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rua theodoro brauko</t>
+          <t>Rua Theodoro Brauko</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rua leopoldo froes</t>
+          <t>Rua Leopoldo Froes</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rua william sabino</t>
+          <t>Rua William Sabino</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rua são venceslau</t>
+          <t>Rua São Venceslau</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rua cambuquira</t>
+          <t>Rua Cambuquira</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rua gabriele d'annunzio</t>
+          <t>Rua Gabriele D'Annunzio</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rua jatobá</t>
+          <t>Rua Jatobá</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Avenida consuelo sunega gibelli</t>
+          <t>Avenida Consuelo Sunega Gibelli</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rua manoel vitorino</t>
+          <t>Rua Manoel Vitorino</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Rua Não Encontrada</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rua contorno</t>
+          <t>Rua Contorno</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rua luiza belloto santin</t>
+          <t>Rua Luiza Belloto Santin</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rua moacyr corrêa</t>
+          <t>Rua Moacyr Corrêa</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Avenida nelson palma travassos</t>
+          <t>Avenida Nelson Palma Travassos</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rua diamante</t>
+          <t>Rua Diamante</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rua campos vergueiro</t>
+          <t>Rua Campos Vergueiro</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rua dos coqueiros</t>
+          <t>Rua Dos Coqueiros</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Rua dante martinelli</t>
+          <t>Rua Dante Martinelli</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rua porto da folha</t>
+          <t>Rua Porto Da Folha</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rua cassia fernanda coggo martin</t>
+          <t>Rua Cassia Fernanda Coggo Martin</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rua humberto nobile</t>
+          <t>Rua Humberto Nobile</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rua daudt</t>
+          <t>Rua Daudt</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rua pastor judithe do carmo</t>
+          <t>Rua Pastor Judithe Do Carmo</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rua lupe cotrin garaude</t>
+          <t>Rua Lupe Cotrin Garaude</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Rua chiquinha gonzaga</t>
+          <t>Rua Chiquinha Gonzaga</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rua 1607 padre anchieta</t>
+          <t>Rua 1607 Padre Anchieta</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rua siqueira campos</t>
+          <t>Rua Siqueira Campos</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Praça tenório de aguiar</t>
+          <t>Praça Tenório De Aguiar</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rua fernando costa</t>
+          <t>Rua Fernando Costa</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rua engenheiro sadi castro</t>
+          <t>Rua Engenheiro Sadi Castro</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Avenida josé rigone</t>
+          <t>Avenida José Rigone</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Rua guaraiúva</t>
+          <t>Rua Guaraiúva</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Rua Não Encontrada</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Rua Não Encontrada</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Avenida professor joão fiúsa</t>
+          <t>Avenida Professor João Fiúsa</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Avenida leomil</t>
+          <t>Avenida Leomil</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rua josefina riedel de barros</t>
+          <t>Rua Josefina Riedel De Barros</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Avenida são josé dos campos</t>
+          <t>Avenida São José Dos Campos</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Avenida plínio brasil milano</t>
+          <t>Avenida Plínio Brasil Milano</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rua nelson camatari</t>
+          <t>Rua Nelson Camatari</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rua ceará</t>
+          <t>Rua Ceará</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Estrada municipal francisco alves monteiro</t>
+          <t>Estrada Municipal Francisco Alves Monteiro</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Rua doutor juvenal murtinho</t>
+          <t>Rua Doutor Juvenal Murtinho</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rua sílvio romero</t>
+          <t>Rua Sílvio Romero</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Rua colorado</t>
+          <t>Rua Colorado</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Rua alzira marcondes</t>
+          <t>Rua Alzira Marcondes</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Rua pedro kramer</t>
+          <t>Rua Pedro Kramer</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rua irapuã</t>
+          <t>Rua Irapuã</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rua serra do itapetinga</t>
+          <t>Rua Serra Do Itapetinga</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rua royalties</t>
+          <t>Rua Royalties</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Travessa rachel de queiroz</t>
+          <t>Travessa Rachel De Queiroz</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rua áureo país</t>
+          <t>Rua Áureo País</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Rua josé de carli</t>
+          <t>Rua José De Carli</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Rua brasílio machado</t>
+          <t>Rua Brasílio Machado</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Rua general sousa neto</t>
+          <t>Rua General Sousa Neto</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Rua geraldo vieira dos santos</t>
+          <t>Rua Geraldo Vieira Dos Santos</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Avenida giovanni gronchi</t>
+          <t>Avenida Giovanni Gronchi</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Avenida jamaris</t>
+          <t>Avenida Jamaris</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Avenida hélio borenstein</t>
+          <t>Avenida Hélio Borenstein</t>
         </is>
       </c>
       <c r="G106" t="n">

--- a/casas_limpo.xlsx
+++ b/casas_limpo.xlsx
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>60</v>
       </c>
       <c r="B9" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -816,7 +816,7 @@
         <v>88</v>
       </c>
       <c r="B14" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -1093,16 +1093,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>387718</v>
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>65921</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>61.5</v>
+        <v>60</v>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -2695,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -2863,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>2</v>
